--- a/biology/Médecine/Robert_Merle_d'Aubigné/Robert_Merle_d'Aubigné.xlsx
+++ b/biology/Médecine/Robert_Merle_d'Aubigné/Robert_Merle_d'Aubigné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Robert_Merle_d%27Aubign%C3%A9</t>
+          <t>Robert_Merle_d'Aubigné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert-Aimé Merle d'Aubigné (23 juillet 1900, Neuilly-sur-Seine - 11 octobre 1989, Achères-la-Forêt), est un médecin français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Robert_Merle_d%27Aubign%C3%A9</t>
+          <t>Robert_Merle_d'Aubigné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Francis Charles Merle d'Aubigné (1861-1948), président du Consistoire de l'Église réformée de Paris, il suit des études de médecine et devient chirurgien orthopédiste français, spécialiste de chirurgie réparatrice.
 Il est l'un des fondateurs du Groupe de haute montagne du Club alpin français et membre d'honneur de la Compagnie des guides de Chamonix. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Robert_Merle_d%27Aubign%C3%A9</t>
+          <t>Robert_Merle_d'Aubigné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Grand officier de la Légion d'honneur
 Grand-croix de l'Ordre national du Mérite
